--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1392161.347057313</v>
+        <v>1390273.765540911</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.0138441087959</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>98.54896909037144</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394837</v>
       </c>
       <c r="V4" t="n">
-        <v>155.211488636581</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>209.5811765789065</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.40868448976521</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.92375604299518</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>205.1478855987996</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>180.2484107694627</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164003906</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.0036366911897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.14181527072881</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139875</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.5817310325057</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,13 +1819,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>250.0068403603049</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>78.92605066944053</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>70.43533402631068</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.250241677064963</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>172.7067178467369</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.3060543794765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>33.35146980185863</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>110.1245359962702</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>22.14609241444474</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.8895359293963</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3205,7 +3205,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.2873553346322</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789545</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.4137200851867</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>571.451203144775</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>571.451203144775</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>571.451203144775</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4343,7 +4343,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.15289212512</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.013560149308</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4392,40 +4392,40 @@
         <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>138.385715127383</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036446</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.881273373638</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1215.881273373638</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1215.881273373638</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>830.0930207753941</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>419.1071159857865</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>520.9088977430002</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>520.9088977430002</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>737.5416843872206</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>678.2225136306379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>509.286330702731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345002</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617345002</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>699.57788259097</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5261,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>559.3346142065632</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188989</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>709.4512536188989</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>709.4512536188989</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.4512536188989</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,31 +5501,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>754.4177361809767</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>585.4815532530698</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>435.3649138407341</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1427.769468511124</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1227.849458426676</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1004.064043216182</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.055751909234</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X19" t="n">
-        <v>936.0662010112164</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>936.0662010112164</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5744,31 +5744,31 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5832,25 +5832,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.836466556557</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>2041.248044820708</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.675485541541</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>268.675485541541</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>268.675485541541</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>268.675485541541</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>268.675485541541</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>100.5001638613616</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765189</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765189</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>496.6650364395583</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>268.675485541541</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>268.675485541541</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
@@ -6072,16 +6072,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.9335914287639</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C25" t="n">
-        <v>673.9335914287639</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9316061372627</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y25" t="n">
-        <v>855.5820562590036</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6230,13 +6230,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6309,19 +6309,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609662</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>874.7653115142286</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>874.7653115142286</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X28" t="n">
-        <v>874.7653115142286</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y28" t="n">
-        <v>653.9727323706985</v>
+        <v>130.9054447954966</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.7225911205029</v>
+        <v>439.5324299542167</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739667</v>
+        <v>326.3571123076805</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430017</v>
+        <v>232.0013381767155</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430017</v>
+        <v>232.0013381767155</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>232.0013381767155</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>119.5868817779068</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818919</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818933</v>
+        <v>730.4517433652452</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6101906693718</v>
+        <v>565.4200295030857</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,7 +6713,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982982</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113634</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777666</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.143944996363</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,34 +7072,34 @@
         <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,16 +7114,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7552,25 +7552,25 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.848946864969</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,61 +7780,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.751552729297</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9480,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>398.9629823660891</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>124.3400780863228</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>403.7628319612151</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>87.16935584025396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>85.30006332127817</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.6901649112085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8522316140634985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>36.51615797628608</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>67.50791197712864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>39.5290183774821</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>145.6635866904712</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>79.43092547709108</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.2785989726183</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>142.0131073275578</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>71.56447932453439</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.49186079414142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>983502.0675940802</v>
+        <v>983502.0675940801</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.973425356</v>
@@ -26326,16 +26326,16 @@
         <v>430131.9657114797</v>
       </c>
       <c r="G2" t="n">
+        <v>430131.9657114796</v>
+      </c>
+      <c r="H2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>430131.9657114795</v>
       </c>
-      <c r="I2" t="n">
-        <v>430131.9657114797</v>
-      </c>
       <c r="J2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="K2" t="n">
         <v>447504.3510797971</v>
@@ -26344,13 +26344,13 @@
         <v>451572.9734253563</v>
       </c>
       <c r="M2" t="n">
+        <v>451572.9734253563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>451572.9734253563</v>
+      </c>
+      <c r="O2" t="n">
         <v>451572.9734253562</v>
-      </c>
-      <c r="N2" t="n">
-        <v>451572.9734253561</v>
-      </c>
-      <c r="O2" t="n">
-        <v>451572.9734253563</v>
       </c>
       <c r="P2" t="n">
         <v>451572.9734253562</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284553</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159209</v>
@@ -26427,16 +26427,16 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007501</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007454</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007459</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007496</v>
@@ -26448,16 +26448,16 @@
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.5188973279</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369171.0325685188</v>
+        <v>-369171.0325685191</v>
       </c>
       <c r="C6" t="n">
         <v>220796.8466460257</v>
@@ -26528,40 +26528,40 @@
         <v>220796.8466460256</v>
       </c>
       <c r="E6" t="n">
-        <v>-194932.1283701407</v>
+        <v>-195029.5874961129</v>
       </c>
       <c r="F6" t="n">
-        <v>330227.9081067556</v>
+        <v>330130.4489807834</v>
       </c>
       <c r="G6" t="n">
-        <v>330227.9081067556</v>
+        <v>330130.4489807833</v>
       </c>
       <c r="H6" t="n">
-        <v>330227.9081067555</v>
+        <v>330130.4489807834</v>
       </c>
       <c r="I6" t="n">
-        <v>330227.9081067556</v>
+        <v>330130.4489807833</v>
       </c>
       <c r="J6" t="n">
-        <v>153804.6889141625</v>
+        <v>153707.2297881904</v>
       </c>
       <c r="K6" t="n">
-        <v>280632.1830765246</v>
+        <v>280613.6893385904</v>
       </c>
       <c r="L6" t="n">
-        <v>313179.441907136</v>
+        <v>313179.4419071361</v>
       </c>
       <c r="M6" t="n">
-        <v>188721.3334741656</v>
+        <v>188721.3334741658</v>
       </c>
       <c r="N6" t="n">
-        <v>323522.3487080028</v>
+        <v>323522.348708003</v>
       </c>
       <c r="O6" t="n">
         <v>323522.3487080029</v>
       </c>
       <c r="P6" t="n">
-        <v>279359.7434051574</v>
+        <v>279359.7434051573</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964068</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,10 +26823,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108369</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.2590476622117</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>308.32707665134</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.415845301584341e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680294</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724699</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>204.2029934418885</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>28.0697180850465</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,13 +27670,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150891</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>46.98975772502837</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>201.6819593027991</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080782</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,25 +28059,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.58101666090508</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4.091732653158394e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-9.776074539239195e-14</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>744.1759297797634</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>709.3873594165555</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
@@ -36218,10 +36218,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>434.7644551367891</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36677,10 +36677,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>736.957405359228</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>294.2627707717787</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>618.5494866776701</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>418.4946367192911</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680955</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
